--- a/cybercrime-report/backend/resolved_reports.xlsx
+++ b/cybercrime-report/backend/resolved_reports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1022,9 +1022,29 @@
         <v>Resolved</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Phishing</v>
+      </c>
+      <c r="B32" t="str">
+        <v>mckl;t v;lk</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Screenshot 2025-03-21 212707.png</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2025-05-16T19:26:29.150Z</v>
+      </c>
+      <c r="E32" t="str">
+        <v>CYB215259</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Resolved</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F32"/>
   </ignoredErrors>
 </worksheet>
 </file>